--- a/assets/COST_PLAN_PROJECT_NAME.xlsx
+++ b/assets/COST_PLAN_PROJECT_NAME.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10329"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\Desktop\Nextria Project Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidseguin/git/keyword_parser/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADE904F6-5122-4A57-9413-30649E131936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690A52E1-8E68-0743-A7A1-69A480C34E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17985" yWindow="2520" windowWidth="25665" windowHeight="19185" activeTab="1" xr2:uid="{74A0FC1B-A965-4D8D-AAC9-46CB8D8C5335}"/>
+    <workbookView xWindow="160" yWindow="920" windowWidth="34240" windowHeight="21260" xr2:uid="{74A0FC1B-A965-4D8D-AAC9-46CB8D8C5335}"/>
   </bookViews>
   <sheets>
-    <sheet name="Cost Breakdown" sheetId="1" r:id="rId1"/>
-    <sheet name="Distribution Plan" sheetId="2" r:id="rId2"/>
+    <sheet name="Items" sheetId="3" r:id="rId1"/>
+    <sheet name="Contract Years" sheetId="4" r:id="rId2"/>
+    <sheet name="Support" sheetId="1" r:id="rId3"/>
+    <sheet name="Distribution Plan" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
   <si>
     <t xml:space="preserve"> CONTRACT YEARS (Vote 5 )</t>
   </si>
@@ -173,8 +175,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-[$$-1009]* #,##0.00_-;\-[$$-1009]* #,##0.00_-;_-[$$-1009]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-[$$-1009]* #,##0.00_-;\-[$$-1009]* #,##0.00_-;_-[$$-1009]* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -346,7 +348,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -359,24 +361,24 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="6" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -385,17 +387,17 @@
     <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -447,10 +449,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -769,38 +767,256 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45E166F9-4BA4-4626-9C94-89BAA0BA14EC}">
-  <dimension ref="A2:M31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3391944-84C7-1146-8F76-2625E3D2E9D9}">
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
-    <col min="4" max="7" width="15.5703125" customWidth="1"/>
-    <col min="8" max="8" width="24.5703125" customWidth="1"/>
-    <col min="9" max="10" width="17.42578125" customWidth="1"/>
-    <col min="11" max="13" width="15.140625" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="20.5" customWidth="1"/>
+    <col min="5" max="5" width="23.1640625" customWidth="1"/>
+    <col min="6" max="6" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+    <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+    </row>
+    <row r="4" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="str">
+        <f>'Contract Years'!A7</f>
+        <v>2 mobile kit (incl this and that and warranty)</v>
+      </c>
+      <c r="B5" s="6">
+        <f>'Contract Years'!C7</f>
+        <v>2631699</v>
+      </c>
+      <c r="C5" s="6">
+        <f>'Contract Years'!D7</f>
+        <v>394754.85</v>
+      </c>
+      <c r="D5" s="6">
+        <f>'Contract Years'!E7</f>
+        <v>3026453.85</v>
+      </c>
+      <c r="E5" s="6">
+        <v>2631699</v>
+      </c>
+      <c r="F5" s="6">
+        <v>2631699</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="str">
+        <f>'Contract Years'!A8</f>
+        <v>Item X</v>
+      </c>
+      <c r="B6" s="6">
+        <f>'Contract Years'!C8</f>
+        <v>51430</v>
+      </c>
+      <c r="C6" s="6">
+        <f>'Contract Years'!D8</f>
+        <v>7714.5</v>
+      </c>
+      <c r="D6" s="6">
+        <f>'Contract Years'!E8</f>
+        <v>59144.5</v>
+      </c>
+      <c r="E6" s="6">
+        <v>2631699</v>
+      </c>
+      <c r="F6" s="6">
+        <v>2631699</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="str">
+        <f>'Contract Years'!A9</f>
+        <v>Item Y</v>
+      </c>
+      <c r="B7" s="6">
+        <v>2631699</v>
+      </c>
+      <c r="C7" s="6">
+        <f>'Contract Years'!D9</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="6">
+        <f>'Contract Years'!E9</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="6">
+        <v>2631699</v>
+      </c>
+      <c r="F7" s="6">
+        <v>2631699</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="str">
+        <f>'Contract Years'!A10</f>
+        <v>Item Z</v>
+      </c>
+      <c r="B8" s="6">
+        <f>'Contract Years'!C10</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="6">
+        <f>'Contract Years'!D10</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="6">
+        <f>'Contract Years'!E10</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="6">
+        <v>2631699</v>
+      </c>
+      <c r="F8" s="6">
+        <v>2631699</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="str">
+        <f>'Contract Years'!A11</f>
+        <v>VTS</v>
+      </c>
+      <c r="B9" s="6">
+        <f>'Contract Years'!C11</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="6">
+        <f>'Contract Years'!D11</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="6">
+        <f>'Contract Years'!E11</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="6">
+        <v>2631699</v>
+      </c>
+      <c r="F9" s="6">
+        <v>2631699</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="str">
+        <f>'Contract Years'!A12</f>
+        <v>TD</v>
+      </c>
+      <c r="B10" s="6">
+        <f>'Contract Years'!C12</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="6">
+        <f>'Contract Years'!D12</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="6">
+        <f>'Contract Years'!E12</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="6">
+        <v>2631699</v>
+      </c>
+      <c r="F10" s="6">
+        <v>2631699</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="14">
+        <f>'Contract Years'!C13</f>
+        <v>2683129</v>
+      </c>
+      <c r="C11" s="14">
+        <f>'Contract Years'!D13</f>
+        <v>402469.35</v>
+      </c>
+      <c r="D11" s="14">
+        <f>'Contract Years'!E13</f>
+        <v>3085598.35</v>
+      </c>
+      <c r="E11" s="14">
+        <f>'Contract Years'!F13</f>
+        <v>462839.7525</v>
+      </c>
+      <c r="F11" s="14">
+        <f>'Contract Years'!G13</f>
+        <v>3548438.1025</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:F3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC4ED88F-5C99-9644-8545-19DE4D21FB8C}">
+  <dimension ref="A3:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.83203125" customWidth="1"/>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" customWidth="1"/>
+    <col min="4" max="5" width="18.83203125" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="7" max="7" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="28" t="s">
+        <v>6</v>
+      </c>
       <c r="B3" s="29"/>
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
@@ -808,859 +1024,694 @@
       <c r="F3" s="29"/>
       <c r="G3" s="29"/>
     </row>
-    <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-    </row>
-    <row r="5" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+    </row>
+    <row r="6" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+    <row r="7" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B7" s="6">
         <v>2631699</v>
       </c>
-      <c r="C6" s="4">
-        <f>B6</f>
+      <c r="C7" s="4">
+        <f>B7</f>
         <v>2631699</v>
       </c>
-      <c r="D6" s="6">
-        <f>C6*0.15</f>
+      <c r="D7" s="6">
+        <f>C7*0.15</f>
         <v>394754.85</v>
       </c>
-      <c r="E6" s="6">
-        <f>D6+C6</f>
+      <c r="E7" s="6">
+        <f>D7+C7</f>
         <v>3026453.85</v>
       </c>
-      <c r="F6" s="6">
-        <f>E6*0.15</f>
+      <c r="F7" s="6">
+        <f>E7*0.15</f>
         <v>453968.07750000001</v>
       </c>
-      <c r="G6" s="4">
-        <f t="shared" ref="G6:G11" si="0">E6+F6</f>
+      <c r="G7" s="4">
+        <f>E7+F7</f>
         <v>3480421.9275000002</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B8" s="6">
         <f>500*74*1.39</f>
         <v>51430</v>
       </c>
-      <c r="C7" s="4">
-        <f t="shared" ref="C7:C11" si="1">B7</f>
+      <c r="C8" s="4">
+        <f>B8</f>
         <v>51430</v>
       </c>
-      <c r="D7" s="6">
-        <f t="shared" ref="D7:D11" si="2">C7*0.15</f>
+      <c r="D8" s="6">
+        <f>C8*0.15</f>
         <v>7714.5</v>
       </c>
-      <c r="E7" s="6">
-        <f t="shared" ref="E7:E11" si="3">D7+C7</f>
+      <c r="E8" s="6">
+        <f>D8+C8</f>
         <v>59144.5</v>
       </c>
-      <c r="F7" s="6">
-        <f t="shared" ref="F7:F11" si="4">E7*0.15</f>
+      <c r="F8" s="6">
+        <f>E8*0.15</f>
         <v>8871.6749999999993</v>
       </c>
-      <c r="G7" s="4">
-        <f t="shared" si="0"/>
+      <c r="G8" s="4">
+        <f>E8+F8</f>
         <v>68016.175000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D8" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E8" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>10</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="4">
-        <f t="shared" si="1"/>
+        <f>B9</f>
         <v>0</v>
       </c>
       <c r="D9" s="6">
-        <f t="shared" si="2"/>
+        <f>C9*0.15</f>
         <v>0</v>
       </c>
       <c r="E9" s="6">
-        <f t="shared" si="3"/>
+        <f>D9+C9</f>
         <v>0</v>
       </c>
       <c r="F9" s="6">
-        <f t="shared" si="4"/>
+        <f>E9*0.15</f>
         <v>0</v>
       </c>
       <c r="G9" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>11</v>
+        <f>E9+F9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="4">
-        <f t="shared" si="1"/>
+        <f>B10</f>
         <v>0</v>
       </c>
       <c r="D10" s="6">
-        <f t="shared" si="2"/>
+        <f>C10*0.15</f>
         <v>0</v>
       </c>
       <c r="E10" s="6">
-        <f t="shared" si="3"/>
+        <f>D10+C10</f>
         <v>0</v>
       </c>
       <c r="F10" s="6">
-        <f t="shared" si="4"/>
+        <f>E10*0.15</f>
         <v>0</v>
       </c>
       <c r="G10" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f>E10+F10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="4">
-        <f t="shared" si="1"/>
+        <f>B11</f>
         <v>0</v>
       </c>
       <c r="D11" s="6">
-        <f t="shared" si="2"/>
+        <f>C11*0.15</f>
         <v>0</v>
       </c>
       <c r="E11" s="6">
-        <f t="shared" si="3"/>
+        <f>D11+C11</f>
         <v>0</v>
       </c>
       <c r="F11" s="6">
-        <f t="shared" si="4"/>
+        <f>E11*0.15</f>
         <v>0</v>
       </c>
       <c r="G11" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+        <f>E11+F11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="4">
+        <f>B12</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="6">
+        <f>C12*0.15</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="6">
+        <f>D12+C12</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="6">
+        <f>E12*0.15</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <f>E12+F12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="8">
-        <f t="shared" ref="B12:G12" si="5">SUM(B6:B11)</f>
+      <c r="B13" s="8">
+        <f>SUM(B7:B12)</f>
         <v>2683129</v>
       </c>
-      <c r="C12" s="8">
-        <f t="shared" si="5"/>
+      <c r="C13" s="8">
+        <f>SUM(C7:C12)</f>
         <v>2683129</v>
       </c>
-      <c r="D12" s="8">
-        <f t="shared" si="5"/>
+      <c r="D13" s="8">
+        <f>SUM(D7:D12)</f>
         <v>402469.35</v>
       </c>
-      <c r="E12" s="8">
-        <f t="shared" si="5"/>
+      <c r="E13" s="8">
+        <f>SUM(E7:E12)</f>
         <v>3085598.35</v>
       </c>
-      <c r="F12" s="8">
-        <f t="shared" si="5"/>
+      <c r="F13" s="8">
+        <f>SUM(F7:F12)</f>
         <v>462839.7525</v>
       </c>
-      <c r="G12" s="8">
-        <f t="shared" si="5"/>
+      <c r="G13" s="8">
+        <f>SUM(G7:G12)</f>
         <v>3548438.1025</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-    </row>
-    <row r="16" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10">
-        <v>268333.94</v>
-      </c>
-      <c r="D17" s="10">
-        <f>C17*1.05</f>
-        <v>281750.63699999999</v>
-      </c>
-      <c r="E17" s="10">
-        <f>D17*1.05</f>
-        <v>295838.16885000002</v>
-      </c>
-      <c r="F17" s="10">
-        <f>SUM(B17:E17)</f>
-        <v>845922.74585000006</v>
-      </c>
-      <c r="G17" s="10">
-        <f>F17*0.15</f>
-        <v>126888.41187750001</v>
-      </c>
-      <c r="H17" s="10">
-        <f>G17+F17</f>
-        <v>972811.15772750007</v>
-      </c>
-      <c r="I17" s="10">
-        <f>H17*0.15</f>
-        <v>145921.67365912499</v>
-      </c>
-      <c r="J17" s="10">
-        <f>SUM(H17:I17)</f>
-        <v>1118732.8313866251</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="10">
-        <v>0</v>
-      </c>
-      <c r="C18" s="10">
-        <v>52633.15</v>
-      </c>
-      <c r="D18" s="10">
-        <f>C18*1.05</f>
-        <v>55264.807500000003</v>
-      </c>
-      <c r="E18" s="10">
-        <f>D18*1.05</f>
-        <v>58028.047875000004</v>
-      </c>
-      <c r="F18" s="10">
-        <f>SUM(B18:E18)</f>
-        <v>165926.00537500001</v>
-      </c>
-      <c r="G18" s="10">
-        <f>F18*0.15</f>
-        <v>24888.90080625</v>
-      </c>
-      <c r="H18" s="10">
-        <f>G18+F18</f>
-        <v>190814.90618125</v>
-      </c>
-      <c r="I18" s="10">
-        <f>H18*0.15</f>
-        <v>28622.235927187499</v>
-      </c>
-      <c r="J18" s="10">
-        <f>SUM(H18:I18)</f>
-        <v>219437.14210843749</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="11">
-        <f t="shared" ref="B19:J19" si="6">SUM(B17:B18)</f>
-        <v>0</v>
-      </c>
-      <c r="C19" s="11">
-        <f t="shared" si="6"/>
-        <v>320967.09000000003</v>
-      </c>
-      <c r="D19" s="11">
-        <f t="shared" si="6"/>
-        <v>337015.44449999998</v>
-      </c>
-      <c r="E19" s="11">
-        <f t="shared" si="6"/>
-        <v>353866.21672500001</v>
-      </c>
-      <c r="F19" s="11">
-        <f t="shared" si="6"/>
-        <v>1011848.751225</v>
-      </c>
-      <c r="G19" s="11">
-        <f t="shared" si="6"/>
-        <v>151777.31268375</v>
-      </c>
-      <c r="H19" s="11">
-        <f t="shared" si="6"/>
-        <v>1163626.0639087502</v>
-      </c>
-      <c r="I19" s="11">
-        <f t="shared" si="6"/>
-        <v>174543.90958631248</v>
-      </c>
-      <c r="J19" s="11">
-        <f t="shared" si="6"/>
-        <v>1338169.9734950624</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K20" s="16">
-        <f>H19/4</f>
-        <v>290906.51597718755</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B21" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="K21" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="H23" s="23" t="str">
-        <f>A15</f>
-        <v>In-Operation Support Vote 1 (NP)</v>
-      </c>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-    </row>
-    <row r="24" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="H24" s="18" t="str">
-        <f>A16</f>
-        <v>Initial Costs</v>
-      </c>
-      <c r="I24" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="J24" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18"/>
-    </row>
-    <row r="25" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="str">
-        <f t="shared" ref="A25:A30" si="7">A6</f>
-        <v>2 mobile kit (incl this and that and warranty)</v>
-      </c>
-      <c r="B25" s="6">
-        <f t="shared" ref="B25:D26" si="8">C6</f>
-        <v>2631699</v>
-      </c>
-      <c r="C25" s="6">
-        <f t="shared" si="8"/>
-        <v>394754.85</v>
-      </c>
-      <c r="D25" s="6">
-        <f t="shared" si="8"/>
-        <v>3026453.85</v>
-      </c>
-      <c r="E25" s="6">
-        <v>2631699</v>
-      </c>
-      <c r="F25" s="6">
-        <v>2631699</v>
-      </c>
-      <c r="H25" s="20" t="str">
-        <f>A17</f>
-        <v>Some Kit Item</v>
-      </c>
-      <c r="I25" s="21">
-        <f t="shared" ref="I25:M26" si="9">F17</f>
-        <v>845922.74585000006</v>
-      </c>
-      <c r="J25" s="22">
-        <f t="shared" si="9"/>
-        <v>126888.41187750001</v>
-      </c>
-      <c r="K25" s="22">
-        <f t="shared" si="9"/>
-        <v>972811.15772750007</v>
-      </c>
-      <c r="L25" s="22">
-        <f t="shared" si="9"/>
-        <v>145921.67365912499</v>
-      </c>
-      <c r="M25" s="21">
-        <f t="shared" si="9"/>
-        <v>1118732.8313866251</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>Item X</v>
-      </c>
-      <c r="B26" s="6">
-        <f t="shared" si="8"/>
-        <v>51430</v>
-      </c>
-      <c r="C26" s="6">
-        <f t="shared" si="8"/>
-        <v>7714.5</v>
-      </c>
-      <c r="D26" s="6">
-        <f t="shared" si="8"/>
-        <v>59144.5</v>
-      </c>
-      <c r="E26" s="6">
-        <v>2631699</v>
-      </c>
-      <c r="F26" s="6">
-        <v>2631699</v>
-      </c>
-      <c r="H26" s="9" t="str">
-        <f>A18</f>
-        <v>Somother Kit Item</v>
-      </c>
-      <c r="I26" s="21">
-        <f t="shared" si="9"/>
-        <v>165926.00537500001</v>
-      </c>
-      <c r="J26" s="22">
-        <f t="shared" si="9"/>
-        <v>24888.90080625</v>
-      </c>
-      <c r="K26" s="22">
-        <f t="shared" si="9"/>
-        <v>190814.90618125</v>
-      </c>
-      <c r="L26" s="22">
-        <f t="shared" si="9"/>
-        <v>28622.235927187499</v>
-      </c>
-      <c r="M26" s="21">
-        <f t="shared" si="9"/>
-        <v>219437.14210843749</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>Item Y</v>
-      </c>
-      <c r="B27" s="6">
-        <v>2631699</v>
-      </c>
-      <c r="C27" s="6">
-        <f t="shared" ref="C27:D31" si="10">D8</f>
-        <v>0</v>
-      </c>
-      <c r="D27" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E27" s="6">
-        <v>2631699</v>
-      </c>
-      <c r="F27" s="6">
-        <v>2631699</v>
-      </c>
-      <c r="H27" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I27" s="11">
-        <f>SUM(I25:I26)</f>
-        <v>1011848.751225</v>
-      </c>
-      <c r="J27" s="11">
-        <f>SUM(J25:J26)</f>
-        <v>151777.31268375</v>
-      </c>
-      <c r="K27" s="11">
-        <f>SUM(K25:K26)</f>
-        <v>1163626.0639087502</v>
-      </c>
-      <c r="L27" s="11">
-        <f>SUM(L25:L26)</f>
-        <v>174543.90958631248</v>
-      </c>
-      <c r="M27" s="11">
-        <f>SUM(M25:M26)</f>
-        <v>1338169.9734950624</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>Item Z</v>
-      </c>
-      <c r="B28" s="6">
-        <f>C9</f>
-        <v>0</v>
-      </c>
-      <c r="C28" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="D28" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E28" s="6">
-        <v>2631699</v>
-      </c>
-      <c r="F28" s="6">
-        <v>2631699</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>VTS</v>
-      </c>
-      <c r="B29" s="6">
-        <f>C10</f>
-        <v>0</v>
-      </c>
-      <c r="C29" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="D29" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E29" s="6">
-        <v>2631699</v>
-      </c>
-      <c r="F29" s="6">
-        <v>2631699</v>
-      </c>
-      <c r="H29" t="s">
-        <v>29</v>
-      </c>
-      <c r="I29">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>TD</v>
-      </c>
-      <c r="B30" s="6">
-        <f>C11</f>
-        <v>0</v>
-      </c>
-      <c r="C30" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="D30" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E30" s="6">
-        <v>2631699</v>
-      </c>
-      <c r="F30" s="6">
-        <v>2631699</v>
-      </c>
-      <c r="H30" t="s">
-        <v>30</v>
-      </c>
-      <c r="I30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" s="14">
-        <f>C12</f>
-        <v>2683129</v>
-      </c>
-      <c r="C31" s="14">
-        <f t="shared" si="10"/>
-        <v>402469.35</v>
-      </c>
-      <c r="D31" s="14">
-        <f t="shared" si="10"/>
-        <v>3085598.35</v>
-      </c>
-      <c r="E31" s="14">
-        <f>F12</f>
-        <v>462839.7525</v>
-      </c>
-      <c r="F31" s="14">
-        <f>G12</f>
-        <v>3548438.1025</v>
-      </c>
-      <c r="H31" t="s">
-        <v>31</v>
-      </c>
-      <c r="I31" t="s">
-        <v>32</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:G3"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A23:F23"/>
+  <mergeCells count="2">
+    <mergeCell ref="A3:G4"/>
+    <mergeCell ref="A5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EE54DF5-2A13-4717-B2C2-A42EA22C004E}">
-  <dimension ref="B1:G5"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45E166F9-4BA4-4626-9C94-89BAA0BA14EC}">
+  <dimension ref="A3:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="31.5703125" customWidth="1"/>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="2" max="2" width="29.83203125" customWidth="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="7" width="15.5" customWidth="1"/>
+    <col min="8" max="8" width="24.5" customWidth="1"/>
+    <col min="9" max="10" width="17.5" customWidth="1"/>
+    <col min="11" max="13" width="15.1640625" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="32" t="s">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="L3" s="23" t="str">
+        <f>A3</f>
+        <v>In-Operation Support Vote 1 (NP)</v>
+      </c>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+    </row>
+    <row r="4" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="18" t="str">
+        <f>A4</f>
+        <v>Initial Costs</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+    </row>
+    <row r="5" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10">
+        <v>268333.94</v>
+      </c>
+      <c r="D5" s="10">
+        <f>C5*1.05</f>
+        <v>281750.63699999999</v>
+      </c>
+      <c r="E5" s="10">
+        <f>D5*1.05</f>
+        <v>295838.16885000002</v>
+      </c>
+      <c r="F5" s="10">
+        <f>SUM(B5:E5)</f>
+        <v>845922.74585000006</v>
+      </c>
+      <c r="G5" s="10">
+        <f>F5*0.15</f>
+        <v>126888.41187750001</v>
+      </c>
+      <c r="H5" s="10">
+        <f>G5+F5</f>
+        <v>972811.15772750007</v>
+      </c>
+      <c r="I5" s="10">
+        <f>H5*0.15</f>
+        <v>145921.67365912499</v>
+      </c>
+      <c r="J5" s="10">
+        <f>SUM(H5:I5)</f>
+        <v>1118732.8313866251</v>
+      </c>
+      <c r="L5" s="20" t="str">
+        <f>A5</f>
+        <v>Some Kit Item</v>
+      </c>
+      <c r="M5" s="21">
+        <f>F5</f>
+        <v>845922.74585000006</v>
+      </c>
+      <c r="N5" s="22">
+        <f>G5</f>
+        <v>126888.41187750001</v>
+      </c>
+      <c r="O5" s="22">
+        <f>H5</f>
+        <v>972811.15772750007</v>
+      </c>
+      <c r="P5" s="22">
+        <f>I5</f>
+        <v>145921.67365912499</v>
+      </c>
+      <c r="Q5" s="21">
+        <f>J5</f>
+        <v>1118732.8313866251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="10">
+        <v>0</v>
+      </c>
+      <c r="C6" s="10">
+        <v>52633.15</v>
+      </c>
+      <c r="D6" s="10">
+        <f>C6*1.05</f>
+        <v>55264.807500000003</v>
+      </c>
+      <c r="E6" s="10">
+        <f>D6*1.05</f>
+        <v>58028.047875000004</v>
+      </c>
+      <c r="F6" s="10">
+        <f>SUM(B6:E6)</f>
+        <v>165926.00537500001</v>
+      </c>
+      <c r="G6" s="10">
+        <f>F6*0.15</f>
+        <v>24888.90080625</v>
+      </c>
+      <c r="H6" s="10">
+        <f>G6+F6</f>
+        <v>190814.90618125</v>
+      </c>
+      <c r="I6" s="10">
+        <f>H6*0.15</f>
+        <v>28622.235927187499</v>
+      </c>
+      <c r="J6" s="10">
+        <f>SUM(H6:I6)</f>
+        <v>219437.14210843749</v>
+      </c>
+      <c r="L6" s="9" t="str">
+        <f>A6</f>
+        <v>Somother Kit Item</v>
+      </c>
+      <c r="M6" s="21">
+        <f>F6</f>
+        <v>165926.00537500001</v>
+      </c>
+      <c r="N6" s="22">
+        <f>G6</f>
+        <v>24888.90080625</v>
+      </c>
+      <c r="O6" s="22">
+        <f>H6</f>
+        <v>190814.90618125</v>
+      </c>
+      <c r="P6" s="22">
+        <f>I6</f>
+        <v>28622.235927187499</v>
+      </c>
+      <c r="Q6" s="21">
+        <f>J6</f>
+        <v>219437.14210843749</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="11">
+        <f t="shared" ref="B7:J7" si="0">SUM(B5:B6)</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="11">
+        <f t="shared" si="0"/>
+        <v>320967.09000000003</v>
+      </c>
+      <c r="D7" s="11">
+        <f t="shared" si="0"/>
+        <v>337015.44449999998</v>
+      </c>
+      <c r="E7" s="11">
+        <f t="shared" si="0"/>
+        <v>353866.21672500001</v>
+      </c>
+      <c r="F7" s="11">
+        <f t="shared" si="0"/>
+        <v>1011848.751225</v>
+      </c>
+      <c r="G7" s="11">
+        <f t="shared" si="0"/>
+        <v>151777.31268375</v>
+      </c>
+      <c r="H7" s="11">
+        <f t="shared" si="0"/>
+        <v>1163626.0639087502</v>
+      </c>
+      <c r="I7" s="11">
+        <f t="shared" si="0"/>
+        <v>174543.90958631248</v>
+      </c>
+      <c r="J7" s="11">
+        <f t="shared" si="0"/>
+        <v>1338169.9734950624</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="11">
+        <f>SUM(M5:M6)</f>
+        <v>1011848.751225</v>
+      </c>
+      <c r="N7" s="11">
+        <f>SUM(N5:N6)</f>
+        <v>151777.31268375</v>
+      </c>
+      <c r="O7" s="11">
+        <f>SUM(O5:O6)</f>
+        <v>1163626.0639087502</v>
+      </c>
+      <c r="P7" s="11">
+        <f>SUM(P5:P6)</f>
+        <v>174543.90958631248</v>
+      </c>
+      <c r="Q7" s="11">
+        <f>SUM(Q5:Q6)</f>
+        <v>1338169.9734950624</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="96.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="8:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="8:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="8:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="K20" s="16"/>
+    </row>
+    <row r="21" spans="8:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="K21" s="15"/>
+    </row>
+    <row r="23" spans="8:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="8:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="8:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="8:11" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="8:11" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="8:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H29" t="s">
+        <v>29</v>
+      </c>
+      <c r="I29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="8:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H30" t="s">
+        <v>30</v>
+      </c>
+      <c r="I30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="8:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H31" t="s">
+        <v>31</v>
+      </c>
+      <c r="I31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:J3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EE54DF5-2A13-4717-B2C2-A42EA22C004E}">
+  <dimension ref="B3:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="31.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B3" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-    </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="17" t="s">
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B4" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C4" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D4" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E4" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F4" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G4" s="24" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="25" t="s">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C5" s="26">
         <v>16</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D5" s="26">
         <v>50</v>
-      </c>
-      <c r="E3" s="26">
-        <v>3</v>
-      </c>
-      <c r="F3" s="26">
-        <v>7</v>
-      </c>
-      <c r="G3" s="27">
-        <f>SUM(C3:F3)</f>
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="26">
-        <v>16</v>
-      </c>
-      <c r="D4" s="26">
-        <v>50</v>
-      </c>
-      <c r="E4" s="26">
-        <v>0</v>
-      </c>
-      <c r="F4" s="26">
-        <v>7</v>
-      </c>
-      <c r="G4" s="27">
-        <f>SUM(C4:F4)</f>
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="26">
-        <v>1</v>
-      </c>
-      <c r="D5" s="26">
-        <v>5</v>
       </c>
       <c r="E5" s="26">
         <v>3</v>
       </c>
       <c r="F5" s="26">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G5" s="27">
         <f>SUM(C5:F5)</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B6" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="26">
+        <v>16</v>
+      </c>
+      <c r="D6" s="26">
+        <v>50</v>
+      </c>
+      <c r="E6" s="26">
+        <v>0</v>
+      </c>
+      <c r="F6" s="26">
+        <v>7</v>
+      </c>
+      <c r="G6" s="27">
+        <f>SUM(C6:F6)</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="26">
+        <v>1</v>
+      </c>
+      <c r="D7" s="26">
+        <v>5</v>
+      </c>
+      <c r="E7" s="26">
+        <v>3</v>
+      </c>
+      <c r="F7" s="26">
+        <v>0</v>
+      </c>
+      <c r="G7" s="27">
+        <f>SUM(C7:F7)</f>
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EAB0B779E1104B479472358F426B8116" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5aece9e54c730ab36cbabca402936f49">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="28c6bf99-c48d-4741-aea8-7e9b00c70f55" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="eb5ab35f1c65fdd362d14d42a19cd199" ns3:_="">
     <xsd:import namespace="28c6bf99-c48d-4741-aea8-7e9b00c70f55"/>
@@ -1810,31 +1861,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9D0273A-EFD0-4B5B-A398-A1F516134F42}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="28c6bf99-c48d-4741-aea8-7e9b00c70f55"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3123D75-230F-4426-A8F9-7ACE15A47F16}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03083FC3-65C3-4D71-9F3B-67513F80C15E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1850,4 +1892,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3123D75-230F-4426-A8F9-7ACE15A47F16}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9D0273A-EFD0-4B5B-A398-A1F516134F42}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="28c6bf99-c48d-4741-aea8-7e9b00c70f55"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>